--- a/data/01-12-2025-lookup_types-all.xlsx
+++ b/data/01-12-2025-lookup_types-all.xlsx
@@ -2363,7 +2363,7 @@
         <v>45879</v>
       </c>
       <c r="K3" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,7 @@
         <v>45879</v>
       </c>
       <c r="K4" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>45879</v>
       </c>
       <c r="K5" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>45879</v>
       </c>
       <c r="K6" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>45879</v>
       </c>
       <c r="K7" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>45879</v>
       </c>
       <c r="K8" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>45879</v>
       </c>
       <c r="K9" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>45891</v>
       </c>
       <c r="K10" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>45890</v>
       </c>
       <c r="K11" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
         <v>45934</v>
       </c>
       <c r="K12" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
         <v>45879</v>
       </c>
       <c r="K13" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>45879</v>
       </c>
       <c r="K14" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
         <v>45890</v>
       </c>
       <c r="K15" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
         <v>45962</v>
       </c>
       <c r="K16" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2853,7 +2853,7 @@
         <v>45962</v>
       </c>
       <c r="K17" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
         <v>45975</v>
       </c>
       <c r="K18" s="3">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6393,7 +6393,7 @@
         <v>45984</v>
       </c>
       <c r="K119" s="6">
-        <v>45991.68118306713</v>
+        <v>45992.47356619213</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
